--- a/src/test/resources/Excel/Openaccount.xlsx
+++ b/src/test/resources/Excel/Openaccount.xlsx
@@ -8,30 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sreyoshi\eclipse-workspace\RestAPI_RestAssured\Datadriven\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABCBFDF-E5F9-4FAE-86D3-1EBE0B5ECFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7466ADA9-3FC1-42AD-898B-5788C17A4044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{521ECF11-167B-4A5E-B734-FF540EA7F908}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Customer</t>
   </si>
@@ -39,16 +33,10 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>Saipayan</t>
-  </si>
-  <si>
     <t>Rupee</t>
   </si>
   <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>dollar</t>
+    <t>Saipayan Chakraborty</t>
   </si>
 </sst>
 </file>
@@ -411,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0092123-498F-4922-A3F7-9395D7B0725D}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,27 +421,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="selenium@gmail.com" xr:uid="{876B747F-F40C-4A3D-9C81-8B553700C0B3}"/>
-    <hyperlink ref="A3" r:id="rId2" display="java@gmail.com" xr:uid="{D8CD55AF-0B4D-4312-9269-26409199ED72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
